--- a/working/notation_translation_table.xlsx
+++ b/working/notation_translation_table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBA8C2F2-4C6F-409D-9052-6A4E55D3371E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,239 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+  <si>
+    <t>Blei</t>
+  </si>
+  <si>
+    <t>LDATS</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>total samples</t>
+  </si>
+  <si>
+    <t>Notation</t>
+  </si>
+  <si>
+    <t>total documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>set of documents</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>set of samples</t>
+  </si>
+  <si>
+    <t>total species</t>
+  </si>
+  <si>
+    <t>total communities</t>
+  </si>
+  <si>
+    <t>total organisms</t>
+  </si>
+  <si>
+    <t>total organisms within a sample</t>
+  </si>
+  <si>
+    <t>total terms</t>
+  </si>
+  <si>
+    <t>total topics</t>
+  </si>
+  <si>
+    <t>total words</t>
+  </si>
+  <si>
+    <t>total words within a document</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>document index</t>
+  </si>
+  <si>
+    <t>term index</t>
+  </si>
+  <si>
+    <t>topic index</t>
+  </si>
+  <si>
+    <t>word index</t>
+  </si>
+  <si>
+    <t>sample index</t>
+  </si>
+  <si>
+    <t>species index</t>
+  </si>
+  <si>
+    <t>community index</t>
+  </si>
+  <si>
+    <t>organism index</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>indexing</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>κ</t>
+  </si>
+  <si>
+    <t>ψ</t>
+  </si>
+  <si>
+    <t>topicmodels</t>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>observed term</t>
+  </si>
+  <si>
+    <t>latent topic</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>observed species</t>
+  </si>
+  <si>
+    <t>latent community</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>ι</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +295,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844D8F27-33CA-44AA-847A-F21B91ED7198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="3409950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +619,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/working/notation_translation_table.xlsx
+++ b/working/notation_translation_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBA8C2F2-4C6F-409D-9052-6A4E55D3371E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5306566-EA33-482D-9C5F-C9322FB7DE10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Blei</t>
   </si>
@@ -182,9 +182,6 @@
     <t>κ</t>
   </si>
   <si>
-    <t>ψ</t>
-  </si>
-  <si>
     <t>topicmodels</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>λ</t>
   </si>
   <si>
-    <t>ι</t>
-  </si>
-  <si>
     <t>γ</t>
   </si>
   <si>
@@ -225,6 +219,27 @@
   </si>
   <si>
     <t>ω</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>υ</t>
+  </si>
+  <si>
+    <t>organism-level community identity probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentration parameter describing the C-dimensional Dirichlet distribution of organism-level community probabilities within a sample </t>
+  </si>
+  <si>
+    <t>probability describing the S-dimensional categorical distribution of species identity of an organism, given its community identity</t>
+  </si>
+  <si>
+    <t>concentration parameter describing organism-level community identity probability (the community proportion)</t>
+  </si>
+  <si>
+    <t>probability defining the categorical distribution of community identity of individual organisms</t>
   </si>
 </sst>
 </file>
@@ -276,10 +291,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +638,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,18 +652,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -818,73 +833,88 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>63</v>
+      <c r="H23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/working/notation_translation_table.xlsx
+++ b/working/notation_translation_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5306566-EA33-482D-9C5F-C9322FB7DE10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD167E95-9B84-4A35-9DC1-AC673D297086}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Blei</t>
   </si>
@@ -240,6 +240,33 @@
   </si>
   <si>
     <t>probability defining the categorical distribution of community identity of individual organisms</t>
+  </si>
+  <si>
+    <t>ῡ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">standardized concentration parmater </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>υ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, i.e. organism-level community identity probability</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -635,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +926,9 @@
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>63</v>
       </c>
@@ -915,6 +945,17 @@
       </c>
       <c r="H23" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
